--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2052.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2052.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158239566745384</v>
+        <v>1.30138635635376</v>
       </c>
       <c r="B1">
-        <v>2.570476320195</v>
+        <v>2.202964305877686</v>
       </c>
       <c r="C1">
-        <v>5.336550648331904</v>
+        <v>5.033305644989014</v>
       </c>
       <c r="D1">
-        <v>2.696395557111946</v>
+        <v>1.983607172966003</v>
       </c>
       <c r="E1">
-        <v>1.212376222133766</v>
+        <v>1.074829816818237</v>
       </c>
     </row>
   </sheetData>
